--- a/Download/Data/Config.xlsx
+++ b/Download/Data/Config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="135" documentId="11_D78321C894A6752237C641E2A891C7FD3DF25189" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8B031A5-6263-47BC-997B-A4AA0021181C}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="11_D78321C894A6752237C641E2A891C7FD3DF25189" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C63D2BD0-5E0C-4892-B0DA-9D3A0EB85ADC}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="3090" windowWidth="30150" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7185" yWindow="5475" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG_GENERAL" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>linkReport</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>K20</t>
+  </si>
+  <si>
+    <t>E22</t>
+  </si>
+  <si>
+    <t>I22</t>
+  </si>
+  <si>
+    <t>totalSalesCell</t>
+  </si>
+  <si>
+    <t>totalExemptSalesCell</t>
   </si>
 </sst>
 </file>
@@ -523,11 +535,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF16" sqref="AF16"/>
+      <selection pane="bottomLeft" activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,10 +561,12 @@
     <col min="15" max="15" width="21.85546875" style="2" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="30.85546875" style="2" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="21.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="2"/>
+    <col min="18" max="18" width="14.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="22.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,8 +618,14 @@
       <c r="Q1" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="R1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -656,6 +676,12 @@
       </c>
       <c r="Q2" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Download/Data/Config.xlsx
+++ b/Download/Data/Config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="147" documentId="11_D78321C894A6752237C641E2A891C7FD3DF25189" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C63D2BD0-5E0C-4892-B0DA-9D3A0EB85ADC}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="11_D78321C894A6752237C641E2A891C7FD3DF25189" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEA1E39A-ACCD-4D56-9D58-11512690951B}"/>
   <bookViews>
-    <workbookView xWindow="7185" yWindow="5475" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7095" yWindow="4635" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG_GENERAL" sheetId="1" r:id="rId1"/>
@@ -119,13 +119,13 @@
     <t>E22</t>
   </si>
   <si>
-    <t>I22</t>
-  </si>
-  <si>
     <t>totalSalesCell</t>
   </si>
   <si>
     <t>totalExemptSalesCell</t>
+  </si>
+  <si>
+    <t>H22</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD12" sqref="AD12"/>
+      <selection pane="bottomLeft" activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,10 +619,10 @@
         <v>22</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -681,7 +681,7 @@
         <v>33</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Download/Data/Config.xlsx
+++ b/Download/Data/Config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="150" documentId="11_D78321C894A6752237C641E2A891C7FD3DF25189" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEA1E39A-ACCD-4D56-9D58-11512690951B}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="11_D78321C894A6752237C641E2A891C7FD3DF25189" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A5BDCDD-EE99-4C14-B439-3D56EC56E0CC}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="4635" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG_GENERAL" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>linkReport</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>H22</t>
+  </si>
+  <si>
+    <t>periodCell</t>
+  </si>
+  <si>
+    <t>C4</t>
   </si>
 </sst>
 </file>
@@ -535,11 +541,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z12" sqref="Z12"/>
+      <selection pane="bottomLeft" activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,11 +568,12 @@
     <col min="16" max="16" width="30.85546875" style="2" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="21.85546875" style="2" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="14.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="22.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="2"/>
+    <col min="19" max="19" width="22.140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,8 +631,11 @@
       <c r="S1" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="T1" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -682,6 +692,9 @@
       </c>
       <c r="S2" s="2" t="s">
         <v>36</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Download/Data/Config.xlsx
+++ b/Download/Data/Config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="155" documentId="11_D78321C894A6752237C641E2A891C7FD3DF25189" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A5BDCDD-EE99-4C14-B439-3D56EC56E0CC}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="11_D78321C894A6752237C641E2A891C7FD3DF25189" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{744AB9F2-9859-4E9F-A40E-EC78C6135399}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -545,7 +545,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T4" sqref="T4"/>
+      <selection pane="bottomLeft" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Download/Data/Config.xlsx
+++ b/Download/Data/Config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="155" documentId="11_D78321C894A6752237C641E2A891C7FD3DF25189" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{744AB9F2-9859-4E9F-A40E-EC78C6135399}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="11_D78321C894A6752237C641E2A891C7FD3DF25189" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F575859E-F30F-4C94-9C09-48A5D4958B07}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="5895" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG_GENERAL" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>linkReport</t>
   </si>
@@ -44,18 +44,6 @@
     <t>Sales-and-Sellers-Use-Tax-Jurisdiction-Detail-Combined-Extended.xls</t>
   </si>
   <si>
-    <t>filingYear</t>
-  </si>
-  <si>
-    <t>filingPeriod</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
     <t>butlerTaxableSalesCell</t>
   </si>
   <si>
@@ -132,6 +120,36 @@
   </si>
   <si>
     <t>C4</t>
+  </si>
+  <si>
+    <t>greeneLocationCodeCell</t>
+  </si>
+  <si>
+    <t>butlerLocationCodeCell</t>
+  </si>
+  <si>
+    <t>hamiltonLocationCodeCell</t>
+  </si>
+  <si>
+    <t>montgomery1LocationCodeCell</t>
+  </si>
+  <si>
+    <t>montgomery2LocationCodeCell</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>D20</t>
   </si>
 </sst>
 </file>
@@ -541,11 +559,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V5" sqref="V5"/>
+      <selection pane="bottomLeft" activeCell="AJ18" sqref="AJ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,26 +572,29 @@
     <col min="2" max="2" width="14.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="25.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="30.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="30.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="22.140625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="30.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="32.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="2" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="24.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="24.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="26.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="31.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="33.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,46 +617,55 @@
         <v>10</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="V1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -652,57 +682,61 @@
         <v>57901600</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{573D5329-1AF4-4139-AB70-768B74EAAC6A}">
-      <formula1>"Jan,Feb,Mar,Apr,May,Jun,Jul,Aug,Sep,Oct,Nov,Dec"</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{525099C0-4150-4AF3-9D81-B3543D5C5EAF}"/>
   </hyperlinks>
